--- a/backend/mainapp/apiapp/management/commands/data/OpenServers.xlsx
+++ b/backend/mainapp/apiapp/management/commands/data/OpenServers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saatc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ByteAllEnergy\Developing\ProdCast2.0\backend\mainapp\apiapp\management\commands\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C04288-F7D1-48B1-8F34-8AE6D41D9835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E7EA2-56FE-4021-A389-561AC06BE851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GAP(WELL)" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>OpenServer Commands</t>
   </si>
@@ -175,6 +175,60 @@
   </si>
   <si>
     <t>N2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>MASK</t>
+  </si>
+  <si>
+    <t>UNMASK</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
+    <t>DISABLE</t>
+  </si>
+  <si>
+    <t>BYPASS</t>
+  </si>
+  <si>
+    <t>UNBYPASS</t>
+  </si>
+  <si>
+    <t>Reservoir Pressure</t>
+  </si>
+  <si>
+    <t>Water Cut</t>
+  </si>
+  <si>
+    <t>Oil Gravity</t>
+  </si>
+  <si>
+    <t>Gas Gravity</t>
+  </si>
+  <si>
+    <t>Water Salinity</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>IPR</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -247,10 +301,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7A62219-3259-409F-BE21-C10DAEC2140D}" name="Таблица2" displayName="Таблица2" ref="A1:C26" totalsRowShown="0">
-  <autoFilter ref="A1:C26" xr:uid="{F7A62219-3259-409F-BE21-C10DAEC2140D}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7A62219-3259-409F-BE21-C10DAEC2140D}" name="Таблица2" displayName="Таблица2" ref="A1:F26" totalsRowShown="0">
+  <autoFilter ref="A1:F26" xr:uid="{F7A62219-3259-409F-BE21-C10DAEC2140D}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{290D3AFB-FC09-4D23-B262-F2BBE4E61428}" name="OpenServer Commands"/>
+    <tableColumn id="4" xr3:uid="{6780E385-3B41-4AE3-B786-017FAE2D4DE7}" name="Name"/>
+    <tableColumn id="5" xr3:uid="{AA769946-9851-4776-83E9-027DF8656CBD}" name="Source"/>
+    <tableColumn id="6" xr3:uid="{87AFDAFB-1594-4DD6-8043-4A3C37DFDABA}" name="Category"/>
     <tableColumn id="2" xr3:uid="{37F0727E-20FA-41E5-AF86-76838E3F63D3}" name="Discription"/>
     <tableColumn id="3" xr3:uid="{9B8AD23C-1065-4672-9EB5-12D692B25F2A}" name="Applicable with" dataDxfId="0"/>
   </tableColumns>
@@ -521,278 +578,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
